--- a/conejo/two_fictitious/output_test_a2.xlsx
+++ b/conejo/two_fictitious/output_test_a2.xlsx
@@ -455,7 +455,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>1519800.3</v>
       </c>
     </row>
     <row r="3">
@@ -499,7 +499,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -510,7 +510,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         <v>76</v>
       </c>
       <c r="C8" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -532,7 +532,7 @@
         <v>76</v>
       </c>
       <c r="C9" t="n">
-        <v>76</v>
+        <v>-1697951.1</v>
       </c>
     </row>
     <row r="10">
@@ -565,7 +565,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>82.5</v>
+        <v>178985.91</v>
       </c>
     </row>
     <row r="13">
@@ -675,7 +675,7 @@
         <v>155</v>
       </c>
       <c r="C22" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -697,7 +697,7 @@
         <v>400</v>
       </c>
       <c r="C24" t="n">
-        <v>219.03699</v>
+        <v>26641.929</v>
       </c>
     </row>
     <row r="25">
@@ -708,7 +708,7 @@
         <v>400</v>
       </c>
       <c r="C25" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -719,7 +719,7 @@
         <v>50</v>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -730,7 +730,7 @@
         <v>50</v>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>-27011.879</v>
       </c>
     </row>
     <row r="28">
@@ -741,7 +741,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -752,7 +752,7 @@
         <v>50</v>
       </c>
       <c r="C29" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -763,7 +763,7 @@
         <v>50</v>
       </c>
       <c r="C30" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -774,7 +774,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -864,10 +864,10 @@
         <v>175</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.70572</v>
+        <v>1520984.1</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.9470133</v>
+        <v>-25</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>175</v>
       </c>
       <c r="C3" t="n">
-        <v>47.475367</v>
+        <v>-7.0890839</v>
       </c>
       <c r="D3" t="n">
-        <v>-57.497817</v>
+        <v>-42116.202</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>175</v>
       </c>
       <c r="C4" t="n">
-        <v>49.230354</v>
+        <v>-1112.763</v>
       </c>
       <c r="D4" t="n">
-        <v>-16.345363</v>
+        <v>2092.4494</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>39.832891</v>
+        <v>-92146.077</v>
       </c>
       <c r="D5" t="n">
-        <v>-21.0868</v>
+        <v>-2377.1266</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>175</v>
       </c>
       <c r="C6" t="n">
-        <v>42.461388</v>
+        <v>-84917.936</v>
       </c>
       <c r="D6" t="n">
-        <v>-22.251212</v>
+        <v>3250.9091</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>175</v>
       </c>
       <c r="C7" t="n">
-        <v>-73.0234</v>
+        <v>15.410916</v>
       </c>
       <c r="D7" t="n">
-        <v>15.196074</v>
+        <v>37767.452</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>-217.00123</v>
+        <v>-360</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.9570734</v>
+        <v>291372.53</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>431405.8</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>175</v>
       </c>
       <c r="C9" t="n">
-        <v>-34.167109</v>
+        <v>-92220.077</v>
       </c>
       <c r="D9" t="n">
-        <v>-17.26793</v>
+        <v>-1946.6234</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1024,10 +1024,10 @@
         <v>175</v>
       </c>
       <c r="C10" t="n">
-        <v>-21.769646</v>
+        <v>-1183.763</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.922258</v>
+        <v>2166.3006</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>175</v>
       </c>
       <c r="C11" t="n">
-        <v>-93.538612</v>
+        <v>-85053.936</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.0693955</v>
+        <v>1032.8409</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>175</v>
       </c>
       <c r="C12" t="n">
-        <v>157.5</v>
+        <v>179060.91</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-32.876333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1084,10 +1084,10 @@
         <v>175</v>
       </c>
       <c r="C13" t="n">
-        <v>-9.6025253</v>
+        <v>90048.268</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.5170614</v>
+        <v>-4303.75</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>175</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.8974747</v>
+        <v>88841.637</v>
       </c>
       <c r="D14" t="n">
-        <v>4.5170614</v>
+        <v>4303.75</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1124,10 +1124,10 @@
         <v>400</v>
       </c>
       <c r="C15" t="n">
-        <v>-127.59081</v>
+        <v>-1119.5241</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.112342</v>
+        <v>16469.337</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>-164.20222</v>
+        <v>-1211.8738</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.4077873</v>
+        <v>6426.7677</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>400</v>
       </c>
       <c r="C17" t="n">
-        <v>-138.79716</v>
+        <v>1250.6438</v>
       </c>
       <c r="D17" t="n">
-        <v>-12.146465</v>
+        <v>7861.8374</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>-175.40857</v>
+        <v>1158.2941</v>
       </c>
       <c r="D18" t="n">
-        <v>-11.44191</v>
+        <v>-2180.7323</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>500</v>
       </c>
       <c r="C19" t="n">
-        <v>-238.77266</v>
+        <v>-222.73731</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.8940822</v>
+        <v>-6565.9075</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>500</v>
       </c>
       <c r="C20" t="n">
-        <v>-27.615317</v>
+        <v>353.857</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.9720815</v>
+        <v>17910.756</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>500</v>
       </c>
       <c r="C21" t="n">
-        <v>-174.7027</v>
+        <v>-61.125359</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.598637</v>
+        <v>3476.6622</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>500</v>
       </c>
       <c r="C22" t="n">
-        <v>-164.90809</v>
+        <v>7.5456767</v>
       </c>
       <c r="D22" t="n">
-        <v>-10.741691</v>
+        <v>-2122.5949</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>500</v>
       </c>
       <c r="C23" t="n">
-        <v>-87.475354</v>
+        <v>42.137332</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.1430536</v>
+        <v>-5599.2571</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>500</v>
       </c>
       <c r="C24" t="n">
-        <v>-221.61532</v>
+        <v>159.857</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.389352499999999</v>
+        <v>25160.348</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>500</v>
       </c>
       <c r="C25" t="n">
-        <v>-242.96424</v>
+        <v>-1114.857</v>
       </c>
       <c r="D25" t="n">
-        <v>8.9861307</v>
+        <v>56967.685</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>500</v>
       </c>
       <c r="C26" t="n">
-        <v>-293.01849</v>
+        <v>351.4752</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.3018446</v>
+        <v>1186.4407</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>500</v>
       </c>
       <c r="C27" t="n">
-        <v>-293.01849</v>
+        <v>351.4752</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.3018446</v>
+        <v>1186.4407</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>500</v>
       </c>
       <c r="C28" t="n">
-        <v>217.00123</v>
+        <v>360</v>
       </c>
       <c r="D28" t="n">
-        <v>4.3067597</v>
+        <v>-180373.47</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>-450</v>
       </c>
       <c r="D29" t="n">
-        <v>7.9644218</v>
+        <v>95972.374</v>
       </c>
       <c r="E29" t="n">
-        <v>19.4934</v>
+        <v>150622.63</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>500</v>
       </c>
       <c r="C30" t="n">
-        <v>40.420438</v>
+        <v>-450</v>
       </c>
       <c r="D30" t="n">
-        <v>1.8418307</v>
+        <v>1983.5591</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>59893.321</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>500</v>
       </c>
       <c r="C31" t="n">
-        <v>109.4076</v>
+        <v>-10894.119</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6434832</v>
+        <v>-586.44068</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>500</v>
       </c>
       <c r="C32" t="n">
-        <v>-109.4076</v>
+        <v>10894.119</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7532101</v>
+        <v>-686.44068</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         <v>500</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.2777078</v>
+        <v>7707.4048</v>
       </c>
       <c r="D33" t="n">
-        <v>0.59752011</v>
+        <v>-544.55206</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>500</v>
       </c>
       <c r="C34" t="n">
-        <v>-2.2777078</v>
+        <v>7707.4048</v>
       </c>
       <c r="D34" t="n">
-        <v>0.59752011</v>
+        <v>-544.55206</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>500</v>
       </c>
       <c r="C35" t="n">
-        <v>-70.289781</v>
+        <v>-315.5</v>
       </c>
       <c r="D35" t="n">
-        <v>1.6015919</v>
+        <v>1724.834</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>500</v>
       </c>
       <c r="C36" t="n">
-        <v>-70.289781</v>
+        <v>-315.5</v>
       </c>
       <c r="D36" t="n">
-        <v>1.6015919</v>
+        <v>1724.834</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>500</v>
       </c>
       <c r="C37" t="n">
-        <v>-134.28978</v>
+        <v>-379.5</v>
       </c>
       <c r="D37" t="n">
-        <v>0.88087556</v>
+        <v>948.65868</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>500</v>
       </c>
       <c r="C38" t="n">
-        <v>-134.28978</v>
+        <v>-379.5</v>
       </c>
       <c r="D38" t="n">
-        <v>0.88087556</v>
+        <v>948.65868</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>500</v>
       </c>
       <c r="C39" t="n">
-        <v>-190.5924</v>
+        <v>16117.76</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.48779321</v>
+        <v>444.55206</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>170.66102</v>
+        <v>145</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-5.9091437</v>
       </c>
     </row>
     <row r="3">
@@ -1663,10 +1663,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>166.714</v>
+        <v>120</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0017788008</v>
+        <v>-21299.687</v>
       </c>
     </row>
     <row r="4">
@@ -1674,10 +1674,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>113.1632</v>
+        <v>-41971.202</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.10017302</v>
+        <v>-4.413347</v>
       </c>
     </row>
     <row r="5">
@@ -1685,10 +1685,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>145.6272</v>
+        <v>-2257.1266</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.048808971</v>
+        <v>-9597.1353</v>
       </c>
     </row>
     <row r="6">
@@ -1696,10 +1696,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>154.31565</v>
+        <v>2237.4494</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.041845801</v>
+        <v>88.675713</v>
       </c>
     </row>
     <row r="7">
@@ -1707,10 +1707,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>144.46279</v>
+        <v>3370.9091</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07974706500000001</v>
+        <v>-4995.4433</v>
       </c>
     </row>
     <row r="8">
@@ -1721,7 +1721,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>0.066955655</v>
+        <v>25774.432</v>
       </c>
     </row>
     <row r="9">
@@ -1729,10 +1729,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>132.87633</v>
+        <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.029119345</v>
+        <v>14851.717</v>
       </c>
     </row>
     <row r="10">
@@ -1740,10 +1740,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128.35927</v>
+        <v>-4203.75</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.013275178</v>
+        <v>-6.247246</v>
       </c>
     </row>
     <row r="11">
@@ -1751,10 +1751,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>137.39339</v>
+        <v>4403.75</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.022688512</v>
+        <v>192.84686</v>
       </c>
     </row>
     <row r="12">
@@ -1762,10 +1762,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125.24693</v>
+        <v>12265.587</v>
       </c>
       <c r="C12" t="n">
-        <v>0.093901105</v>
+        <v>87.792779</v>
       </c>
     </row>
     <row r="13">
@@ -1773,10 +1773,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>125.95148</v>
+        <v>2223.0177</v>
       </c>
       <c r="C13" t="n">
-        <v>0.12465469</v>
+        <v>95.55015299999999</v>
       </c>
     </row>
     <row r="14">
@@ -1784,10 +1784,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>123.35285</v>
+        <v>5699.6799</v>
       </c>
       <c r="C14" t="n">
-        <v>0.20851198</v>
+        <v>98.48417000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1795,10 +1795,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>119.27485</v>
+        <v>30176.344</v>
       </c>
       <c r="C15" t="n">
-        <v>0.10549954</v>
+        <v>72.930785</v>
       </c>
     </row>
     <row r="16">
@@ -1806,10 +1806,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>101.89936</v>
+        <v>-1630.9927</v>
       </c>
       <c r="C16" t="n">
-        <v>0.19494865</v>
+        <v>44.546653</v>
       </c>
     </row>
     <row r="17">
@@ -1817,10 +1817,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>110.8855</v>
+        <v>55336.692</v>
       </c>
       <c r="C17" t="n">
-        <v>0.23625258</v>
+        <v>63.499222</v>
       </c>
     </row>
     <row r="18">
@@ -1828,10 +1828,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>99.356517</v>
+        <v>686.44068</v>
       </c>
       <c r="C18" t="n">
-        <v>0.35325258</v>
+        <v>75.19922200000001</v>
       </c>
     </row>
     <row r="19">
@@ -1842,7 +1842,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.33793551</v>
+        <v>227.71689</v>
       </c>
     </row>
     <row r="20">
@@ -1850,10 +1850,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>112.72733</v>
+        <v>-2573.0698</v>
       </c>
       <c r="C20" t="n">
-        <v>0.22695587</v>
+        <v>73.849222</v>
       </c>
     </row>
     <row r="21">
@@ -1861,10 +1861,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>114.32892</v>
+        <v>-848.23583</v>
       </c>
       <c r="C21" t="n">
-        <v>0.25507179</v>
+        <v>86.469222</v>
       </c>
     </row>
     <row r="22">
@@ -1872,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>100.59752</v>
+        <v>-444.55206</v>
       </c>
       <c r="C22" t="n">
-        <v>0.33852772</v>
+        <v>27.324368</v>
       </c>
     </row>
     <row r="23">
@@ -1883,10 +1883,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>100.10973</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.46813055</v>
+        <v>-1068.6833</v>
       </c>
     </row>
     <row r="24">
@@ -1894,10 +1894,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>115.20979</v>
+        <v>100.42285</v>
       </c>
       <c r="C24" t="n">
-        <v>0.28461554</v>
+        <v>94.81822200000001</v>
       </c>
     </row>
     <row r="25">
@@ -1905,10 +1905,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>106.20612</v>
+        <v>-182004.46</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08210801199999999</v>
+        <v>25.826653</v>
       </c>
     </row>
   </sheetData>
